--- a/Baseball Salaries.xlsx
+++ b/Baseball Salaries.xlsx
@@ -1040,15 +1040,6 @@
     <t xml:space="preserve">Monty Fariss     </t>
   </si>
   <si>
-    <t>Player Name</t>
-  </si>
-  <si>
-    <t>Batting Average</t>
-  </si>
-  <si>
-    <t>On-Base Percentage</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -1064,40 +1055,49 @@
     <t>Triples</t>
   </si>
   <si>
-    <t>Home Runs</t>
-  </si>
-  <si>
     <t>RBIs</t>
   </si>
   <si>
     <t>Walks</t>
   </si>
   <si>
-    <t>Strike-Outs</t>
-  </si>
-  <si>
-    <t>Stolen Bases</t>
-  </si>
-  <si>
     <t>Errors</t>
   </si>
   <si>
-    <t>Free Agency Eligibility</t>
-  </si>
-  <si>
-    <t>Arbitration Elegibility</t>
-  </si>
-  <si>
-    <t>Slugging Percentage</t>
-  </si>
-  <si>
-    <t>Free Agent 1991/1992</t>
-  </si>
-  <si>
-    <t>Arbitration 1991/1992</t>
-  </si>
-  <si>
-    <t>Player ID</t>
+    <t>Player_ID</t>
+  </si>
+  <si>
+    <t>Player_Name</t>
+  </si>
+  <si>
+    <t>Batting_Average</t>
+  </si>
+  <si>
+    <t>OnBase_Percentage</t>
+  </si>
+  <si>
+    <t>Slugging_Percentage</t>
+  </si>
+  <si>
+    <t>Home_Runs</t>
+  </si>
+  <si>
+    <t>Strike_Outs</t>
+  </si>
+  <si>
+    <t>Stolen_Bases</t>
+  </si>
+  <si>
+    <t>Free_Agency_Eligibility</t>
+  </si>
+  <si>
+    <t>Free_Agent_1991/1992</t>
+  </si>
+  <si>
+    <t>Arbitration_Elegibility</t>
+  </si>
+  <si>
+    <t>Arbitration_1991/1992</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1149,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1433,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,64 +1462,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>354</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.25">

--- a/Baseball Salaries.xlsx
+++ b/Baseball Salaries.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derek/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\team-3_project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1103,9 +1103,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1149,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1161,6 +1161,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1433,34 +1436,34 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8342,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9024,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9520,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9582,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9768,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10326,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -11504,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -11752,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -11938,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12000,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -12062,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -12186,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -12248,7 +12251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -12434,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -12682,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -12744,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -12992,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -13116,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -13178,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -13240,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -13302,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -13488,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -13612,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -13736,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -13798,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -13860,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -13984,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -14046,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -14108,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -14170,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -14480,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -14542,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -14604,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -14728,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -14790,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -14852,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -14914,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -14976,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -15038,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -15100,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -15162,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -15224,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -15286,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -15410,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -15534,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -15596,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -15658,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -15720,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -15782,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -15844,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -15906,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -15968,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -16030,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -16092,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -16154,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -16278,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -16340,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -16464,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -16526,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -16588,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -16650,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -16712,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -16774,7 +16777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -16836,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -16898,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -16960,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17022,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17084,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17146,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17208,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17270,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -17332,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -17394,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -17518,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -17580,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -17642,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -17704,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -17766,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18014,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18076,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18200,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18262,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18324,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18386,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18448,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18510,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18572,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18634,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18696,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -18758,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -18882,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -18944,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -19006,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -19068,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -19130,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -19192,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -19254,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -19316,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -19378,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19440,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19502,7 +19505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19564,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19626,7 +19629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19688,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19750,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19812,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19874,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19936,7 +19939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -19998,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -20060,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -20122,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -20184,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -20246,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -20308,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -20370,7 +20373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -20432,7 +20435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -20494,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -20556,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -20618,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -20742,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -20804,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -20866,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -20928,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -20990,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -21052,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -21114,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -21176,7 +21179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -21238,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -21300,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -21362,7 +21365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -21424,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -21486,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -21548,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -21610,7 +21613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -21672,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -21796,7 +21799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -21858,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -21920,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -21982,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -22044,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -22106,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -22168,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -22230,7 +22233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -22292,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -22354,7 +22357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
